--- a/va_facility_data_2025-02-20/Cumberland VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cumberland%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Cumberland VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cumberland%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R512c33c954cf4ace951553780a1cc733"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R99031878c8f94d37be1469b6a2d960cf"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra9b75591faf74b19a32f3b9d9b1bffac"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R3c0408a14a734ab4bec057fa2d12a231"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6c1ab9a9b8b242b4a080a9f4f4fa2050"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf0b4521cd4ff43938ac726ab45b430fe"/>
   </x:sheets>
 </x:workbook>
 </file>
